--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject28.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject28.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.56666766321834183</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -185,7 +185,7 @@
         <v>0</v>
       </c>
       <c r="T1" s="0">
-        <v>0</v>
+        <v>0.5226385757513855</v>
       </c>
       <c r="U1" s="0">
         <v>0</v>
@@ -269,7 +269,7 @@
         <v>0</v>
       </c>
       <c r="AV1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW1" s="0">
         <v>0</v>
@@ -320,30 +320,30 @@
         <v>0</v>
       </c>
       <c r="BM1" s="0">
-        <v>0</v>
+        <v>0.67729393367352309</v>
       </c>
       <c r="BN1" s="0">
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0</v>
+        <v>0.79410381005545827</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.84406969457198744</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0.97363867757716016</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.86135323555340837</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="BL2" s="0">
-        <v>0</v>
+        <v>0.56796207626744177</v>
       </c>
       <c r="BM2" s="0">
         <v>0</v>
@@ -535,24 +535,24 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>0</v>
+        <v>0.50653950771129042</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0.87117538366465985</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>0.78997406186949171</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.8141080313907787</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="U3" s="0">
-        <v>0</v>
+        <v>0.64039984940257455</v>
       </c>
       <c r="V3" s="0">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="0">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="BF3" s="0">
-        <v>0</v>
+        <v>0.62325411956760757</v>
       </c>
       <c r="BG3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.93595585834606732</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>0.51832547231529369</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0.6739947209241629</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0.80232046515208633</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="0">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="BD4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="0">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="BK4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL4" s="0">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.68916443684989637</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0.98473751954392119</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0.88336562969210841</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="0">
-        <v>0</v>
+        <v>0.89104935177213351</v>
       </c>
       <c r="X5" s="0">
         <v>0</v>
@@ -1072,16 +1072,16 @@
         <v>0</v>
       </c>
       <c r="AO5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP5" s="0">
-        <v>0</v>
+        <v>0.90813759380931136</v>
       </c>
       <c r="AQ5" s="0">
         <v>0</v>
       </c>
       <c r="AR5" s="0">
-        <v>0</v>
+        <v>0.98661554830891285</v>
       </c>
       <c r="AS5" s="0">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="BB5" s="0">
-        <v>0</v>
+        <v>0.95907326201324949</v>
       </c>
       <c r="BC5" s="0">
         <v>0</v>
@@ -1167,22 +1167,22 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0.69485678363308279</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0.92374416831700756</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0.74942714010387768</v>
       </c>
       <c r="H6" s="0">
-        <v>0</v>
+        <v>0.80215204443526744</v>
       </c>
       <c r="I6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="0">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="BA6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0.66707371329895171</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0.88293810122818506</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
+        <v>0.7973086677757083</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="AP7" s="0">
-        <v>0</v>
+        <v>0.97992666034121911</v>
       </c>
       <c r="AQ7" s="0">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="BM7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="0">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0</v>
+        <v>0.66877353222088431</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0.61605943760308479</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.68495426851711549</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="0">
-        <v>0</v>
+        <v>0.61753729681660052</v>
       </c>
       <c r="T8" s="0">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="AD8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="0">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="AG8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="0">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="0">
         <v>0</v>
@@ -1791,10 +1791,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>0.96176481605732678</v>
       </c>
       <c r="H9" s="0">
         <v>0</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0</v>
+        <v>0.54752070910459139</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="0">
-        <v>0</v>
+        <v>0.74627237387063805</v>
       </c>
       <c r="Y9" s="0">
         <v>0</v>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="BI9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ9" s="0">
         <v>0</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.77949204753510437</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0.6041856124270093</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0.56816587142880626</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0</v>
+        <v>0.64939960975492173</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0.68291851766607237</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>0</v>
+        <v>0.56971905116557497</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="0">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="AM11" s="0">
-        <v>0</v>
+        <v>0.87806677442032388</v>
       </c>
       <c r="AN11" s="0">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="AR11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS11" s="0">
         <v>0</v>
@@ -2421,25 +2421,25 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0.64842767621753361</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.50381232126680819</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
       </c>
       <c r="P12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="0">
         <v>0</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="0">
-        <v>0</v>
+        <v>0.91925845431572439</v>
       </c>
       <c r="Z12" s="0">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="AU12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="0">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0</v>
+        <v>0.94444497242210668</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.77484136047155971</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0.81200417258731983</v>
       </c>
       <c r="O13" s="0">
-        <v>0</v>
+        <v>0.83417073174290912</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="AZ13" s="0">
-        <v>0</v>
+        <v>0.77012332752753521</v>
       </c>
       <c r="BA13" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0.78478650894671742</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0.7578014275134084</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="0">
-        <v>0</v>
+        <v>0.99112050760299464</v>
       </c>
       <c r="T14" s="0">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="AD14" s="0">
-        <v>0</v>
+        <v>0.84338280305506719</v>
       </c>
       <c r="AE14" s="0">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="BO14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP14" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0</v>
+        <v>0.94175426711000543</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0.58015336585655919</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3069,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" s="0">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="AD15" s="0">
-        <v>0</v>
+        <v>0.73308411711287214</v>
       </c>
       <c r="AE15" s="0">
         <v>0</v>
@@ -3251,16 +3251,16 @@
         <v>0</v>
       </c>
       <c r="L16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="0">
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0.98304423532742646</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AG16" s="0">
-        <v>0</v>
+        <v>0.69228380132272527</v>
       </c>
       <c r="AH16" s="0">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="AW16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX16" s="0">
         <v>0</v>
@@ -3374,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="BA16" s="0">
-        <v>0</v>
+        <v>0.55921137224037021</v>
       </c>
       <c r="BB16" s="0">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0.67937858356756475</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0.70126401934584115</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0.97485589968068642</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="0">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0.61162276970839358</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0.96693744910405399</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="AP18" s="0">
-        <v>0</v>
+        <v>0.92543101909177072</v>
       </c>
       <c r="AQ18" s="0">
         <v>0</v>
@@ -3780,13 +3780,13 @@
         <v>0</v>
       </c>
       <c r="AY18" s="0">
-        <v>0</v>
+        <v>0.94337567926194832</v>
       </c>
       <c r="AZ18" s="0">
         <v>0</v>
       </c>
       <c r="BA18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="0">
         <v>0</v>
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="0">
-        <v>0</v>
+        <v>0.6403740112219718</v>
       </c>
       <c r="I19" s="0">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="0">
-        <v>0</v>
+        <v>0.85456564284518333</v>
       </c>
       <c r="O19" s="0">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0.5149563957342107</v>
       </c>
       <c r="R19" s="0">
         <v>0</v>
@@ -3893,10 +3893,10 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0.60725926476612213</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="BG19" s="0">
-        <v>0</v>
+        <v>0.72304980414869524</v>
       </c>
       <c r="BH19" s="0">
         <v>0</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0</v>
+        <v>0.95030951142263598</v>
       </c>
       <c r="B20" s="0">
         <v>0</v>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="0">
         <v>0</v>
@@ -4093,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0.73444032488782685</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="0">
-        <v>0</v>
+        <v>0.67178769225500434</v>
       </c>
       <c r="AL20" s="0">
         <v>0</v>
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="AR20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS20" s="0">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="BH20" s="0">
-        <v>0</v>
+        <v>0.59541134757838032</v>
       </c>
       <c r="BI20" s="0">
         <v>0</v>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="0">
-        <v>0</v>
+        <v>0.7638071239718851</v>
       </c>
       <c r="D21" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0.69731825001117009</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.64165339279219724</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="BL21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM21" s="0">
         <v>0</v>
@@ -4520,10 +4520,10 @@
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0</v>
+        <v>0.59359345970140831</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0.93600897065996969</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="AY22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ22" s="0">
         <v>0</v>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="0">
-        <v>0</v>
+        <v>0.75401588180271339</v>
       </c>
       <c r="F23" s="0">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.77948378610572167</v>
       </c>
       <c r="V23" s="0">
-        <v>0</v>
+        <v>0.85240086646409607</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0.64693342448689628</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0.64915890158133438</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4804,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="AW23" s="0">
-        <v>0</v>
+        <v>0.83899304605799263</v>
       </c>
       <c r="AX23" s="0">
         <v>0</v>
@@ -4890,13 +4890,13 @@
         <v>0</v>
       </c>
       <c r="I24" s="0">
-        <v>0</v>
+        <v>0.75395245632674923</v>
       </c>
       <c r="J24" s="0">
         <v>0</v>
       </c>
       <c r="K24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="0">
         <v>0</v>
@@ -4929,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0.75663684342365278</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0.87835381125561773</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0</v>
+        <v>0.68456786887423882</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0.51679057635883785</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5105,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="0">
-        <v>0</v>
+        <v>0.96051978076466527</v>
       </c>
       <c r="M25" s="0">
         <v>0</v>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="0">
         <v>0</v>
@@ -5138,10 +5138,10 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0.77169794416943005</v>
       </c>
       <c r="X25" s="0">
-        <v>0</v>
+        <v>0.77841504908580617</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
@@ -5180,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="0">
-        <v>0</v>
+        <v>0.87487664732439219</v>
       </c>
       <c r="AL25" s="0">
         <v>0</v>
@@ -5189,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="AN25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="0">
         <v>0</v>
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="AZ25" s="0">
-        <v>0</v>
+        <v>0.91985204254382369</v>
       </c>
       <c r="BA25" s="0">
         <v>0</v>
@@ -5249,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="BH25" s="0">
-        <v>0</v>
+        <v>0.63218134649723434</v>
       </c>
       <c r="BI25" s="0">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0.65645607457144606</v>
       </c>
       <c r="Y26" s="0">
         <v>0</v>
@@ -5356,16 +5356,16 @@
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0.76660418488388549</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0.60341403384601355</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
       </c>
       <c r="AD26" s="0">
-        <v>0</v>
+        <v>0.83690183053056255</v>
       </c>
       <c r="AE26" s="0">
         <v>0</v>
@@ -5559,16 +5559,16 @@
         <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0.56298965063764461</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0.96886329540628247</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5589,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="0">
-        <v>0</v>
+        <v>0.76559541934169184</v>
       </c>
       <c r="AK27" s="0">
         <v>0</v>
@@ -5631,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="AX27" s="0">
-        <v>0</v>
+        <v>0.95731020571439407</v>
       </c>
       <c r="AY27" s="0">
         <v>0</v>
@@ -5765,10 +5765,10 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0.82389633411557117</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0.67253832107010902</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5819,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="AR28" s="0">
-        <v>0</v>
+        <v>0.61796044767477498</v>
       </c>
       <c r="AS28" s="0">
         <v>0</v>
@@ -5870,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="BI28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ28" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0.95922791517771788</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -5983,10 +5983,10 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.85747038282458321</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0.87377571193761683</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="BA29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB29" s="0">
         <v>0</v>
@@ -6123,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="0">
         <v>0</v>
@@ -6141,10 +6141,10 @@
         <v>0</v>
       </c>
       <c r="N30" s="0">
-        <v>0</v>
+        <v>0.8332327854363939</v>
       </c>
       <c r="O30" s="0">
-        <v>0</v>
+        <v>0.51570957367759784</v>
       </c>
       <c r="P30" s="0">
         <v>0</v>
@@ -6177,16 +6177,16 @@
         <v>0</v>
       </c>
       <c r="Z30" s="0">
-        <v>0</v>
+        <v>0.76967144189134262</v>
       </c>
       <c r="AA30" s="0">
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0.95991987228892195</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.82604044051043868</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0.74311989110597243</v>
       </c>
       <c r="AD31" s="0">
         <v>0</v>
@@ -6401,10 +6401,10 @@
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0.71018505719525171</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6437,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="AR31" s="0">
-        <v>0</v>
+        <v>0.76084779889036702</v>
       </c>
       <c r="AS31" s="0">
         <v>0</v>
@@ -6601,19 +6601,19 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0.68939112503600075</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="AT32" s="0">
-        <v>0</v>
+        <v>0.78559872171860112</v>
       </c>
       <c r="AU32" s="0">
         <v>0</v>
@@ -6741,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="0">
         <v>0</v>
@@ -6765,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="0">
-        <v>0</v>
+        <v>0.61912333200698888</v>
       </c>
       <c r="Q33" s="0">
         <v>0</v>
@@ -6810,19 +6810,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0.82541432547104177</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0.95359307852569664</v>
       </c>
       <c r="AI33" s="0">
-        <v>0</v>
+        <v>0.74165524745943423</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="AT33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU33" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0.94902016754040086</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0.67681432290421539</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0.74910742042893852</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0</v>
+        <v>0.53460583987431998</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7049,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="AP34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ34" s="0">
         <v>0</v>
@@ -7076,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="AY34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ34" s="0">
         <v>0</v>
@@ -7109,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="BJ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK34" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0</v>
+        <v>0.64515430651084937</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0.77053135277114881</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0.71661920132573709</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0.97932967987832953</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7416,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="AA36" s="0">
-        <v>0</v>
+        <v>0.63804243667445115</v>
       </c>
       <c r="AB36" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0</v>
+        <v>0.62671915148163171</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0.83950283467304654</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0.68099622426497941</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.67089198889248802</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7559,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="0">
         <v>0</v>
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="0">
-        <v>0</v>
+        <v>0.61804707059153252</v>
       </c>
       <c r="U37" s="0">
         <v>0</v>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
       <c r="Y37" s="0">
-        <v>0</v>
+        <v>0.88417838699252438</v>
       </c>
       <c r="Z37" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0.84223924557487628</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0.62257737547727587</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0</v>
+        <v>0.81830740494613674</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.94006255623494117</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7688,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="AW37" s="0">
-        <v>0</v>
+        <v>0.72479110223193111</v>
       </c>
       <c r="AX37" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.5861849047324339</v>
       </c>
       <c r="AK38" s="0">
-        <v>0</v>
+        <v>0.85992271874923687</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0.56422970855386922</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7879,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="AR38" s="0">
-        <v>0</v>
+        <v>0.87513171037763637</v>
       </c>
       <c r="AS38" s="0">
         <v>0</v>
@@ -7986,7 +7986,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="0">
-        <v>0</v>
+        <v>0.98485603880536399</v>
       </c>
       <c r="L39" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.75060584614427484</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0.86700411280557232</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0.68420052493043193</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="BP39" s="0">
-        <v>0</v>
+        <v>0.70346753155638742</v>
       </c>
     </row>
     <row r="40">
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="0">
         <v>0</v>
@@ -8273,25 +8273,25 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0.72258194447667756</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0.72875220593606849</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0.67023895866871108</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
       </c>
       <c r="AR40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS40" s="0">
         <v>0</v>
@@ -8339,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="BH40" s="0">
-        <v>0</v>
+        <v>0.88562167873052333</v>
       </c>
       <c r="BI40" s="0">
         <v>0</v>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="0">
         <v>0</v>
@@ -8482,19 +8482,19 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0.97380736535945567</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>0</v>
+        <v>0.94032464047300601</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0.95813480018044284</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8586,13 +8586,13 @@
         <v>0</v>
       </c>
       <c r="E42" s="0">
-        <v>0</v>
+        <v>0.91094817366262215</v>
       </c>
       <c r="F42" s="0">
         <v>0</v>
       </c>
       <c r="G42" s="0">
-        <v>0</v>
+        <v>0.52688554867592985</v>
       </c>
       <c r="H42" s="0">
         <v>0</v>
@@ -8625,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="R42" s="0">
-        <v>0</v>
+        <v>0.81494320346071514</v>
       </c>
       <c r="S42" s="0">
         <v>0</v>
@@ -8673,7 +8673,7 @@
         <v>0</v>
       </c>
       <c r="AH42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI42" s="0">
         <v>0</v>
@@ -8691,16 +8691,16 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0.71086780245212067</v>
       </c>
       <c r="AO42" s="0">
-        <v>0</v>
+        <v>0.54122485576721213</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="0">
         <v>0</v>
@@ -8760,7 +8760,7 @@
         <v>0</v>
       </c>
       <c r="BK42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL42" s="0">
         <v>0</v>
@@ -8900,10 +8900,10 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0.50678652174130556</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0.60966388854108322</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8954,13 +8954,13 @@
         <v>0</v>
       </c>
       <c r="BG43" s="0">
-        <v>0</v>
+        <v>0.54855507730701969</v>
       </c>
       <c r="BH43" s="0">
         <v>0</v>
       </c>
       <c r="BI43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ43" s="0">
         <v>0</v>
@@ -8998,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="0">
-        <v>0</v>
+        <v>0.94579917623892074</v>
       </c>
       <c r="F44" s="0">
         <v>0</v>
@@ -9016,7 +9016,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="0">
         <v>0</v>
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U44" s="0">
         <v>0</v>
@@ -9067,7 +9067,7 @@
         <v>0</v>
       </c>
       <c r="AB44" s="0">
-        <v>0</v>
+        <v>0.599477122817208</v>
       </c>
       <c r="AC44" s="0">
         <v>0</v>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="AE44" s="0">
-        <v>0</v>
+        <v>0.64700180923046158</v>
       </c>
       <c r="AF44" s="0">
         <v>0</v>
@@ -9097,13 +9097,13 @@
         <v>0</v>
       </c>
       <c r="AL44" s="0">
-        <v>0</v>
+        <v>0.98378272731212535</v>
       </c>
       <c r="AM44" s="0">
         <v>0</v>
       </c>
       <c r="AN44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO44" s="0">
         <v>0</v>
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.53978905350676143</v>
       </c>
       <c r="AT44" s="0">
         <v>0</v>
@@ -9198,7 +9198,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0.64385653895181605</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.87620743180455252</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0.82671690517285401</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="AY45" s="0">
-        <v>0</v>
+        <v>0.78136923471395647</v>
       </c>
       <c r="AZ45" s="0">
         <v>0</v>
@@ -9491,10 +9491,10 @@
         <v>0</v>
       </c>
       <c r="AF46" s="0">
-        <v>0</v>
+        <v>0.8007400252354917</v>
       </c>
       <c r="AG46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH46" s="0">
         <v>0</v>
@@ -9530,19 +9530,19 @@
         <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.55680100259953158</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.62439687538304245</v>
       </c>
       <c r="AW46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX46" s="0">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" s="0">
         <v>0</v>
@@ -9736,16 +9736,16 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0.5657658130471297</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.96215535586449019</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0</v>
+        <v>0.70736364884648406</v>
       </c>
       <c r="AW47" s="0">
         <v>0</v>
@@ -9766,7 +9766,7 @@
         <v>0</v>
       </c>
       <c r="BC47" s="0">
-        <v>0</v>
+        <v>0.91779915081840058</v>
       </c>
       <c r="BD47" s="0">
         <v>0</v>
@@ -9775,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="BF47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG47" s="0">
         <v>0</v>
@@ -9810,7 +9810,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48" s="0">
         <v>0</v>
@@ -9945,10 +9945,10 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.67806953366543021</v>
       </c>
       <c r="AU48" s="0">
-        <v>0</v>
+        <v>0.74413726811646752</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0.67231647279562334</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="BD48" s="0">
-        <v>0</v>
+        <v>0.93826626379340317</v>
       </c>
       <c r="BE48" s="0">
         <v>0</v>
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="0">
         <v>0</v>
@@ -10082,7 +10082,7 @@
         <v>0</v>
       </c>
       <c r="W49" s="0">
-        <v>0</v>
+        <v>0.60639507220716915</v>
       </c>
       <c r="X49" s="0">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="AK49" s="0">
-        <v>0</v>
+        <v>0.52214968214908752</v>
       </c>
       <c r="AL49" s="0">
         <v>0</v>
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="AT49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU49" s="0">
         <v>0</v>
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="0">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="BM49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN49" s="0">
         <v>0</v>
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="AA50" s="0">
-        <v>0</v>
+        <v>0.88686466035548839</v>
       </c>
       <c r="AB50" s="0">
         <v>0</v>
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0.69187949848405228</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10393,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="BF50" s="0">
-        <v>0</v>
+        <v>0.93857685347310049</v>
       </c>
       <c r="BG50" s="0">
         <v>0</v>
@@ -10479,7 +10479,7 @@
         <v>0</v>
       </c>
       <c r="R51" s="0">
-        <v>0</v>
+        <v>0.9620938048640576</v>
       </c>
       <c r="S51" s="0">
         <v>0</v>
@@ -10491,7 +10491,7 @@
         <v>0</v>
       </c>
       <c r="V51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W51" s="0">
         <v>0</v>
@@ -10527,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="AH51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI51" s="0">
         <v>0</v>
@@ -10560,7 +10560,7 @@
         <v>0</v>
       </c>
       <c r="AS51" s="0">
-        <v>0</v>
+        <v>0.54187553387405196</v>
       </c>
       <c r="AT51" s="0">
         <v>0</v>
@@ -10575,16 +10575,16 @@
         <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0.61680800362133259</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="0">
-        <v>0</v>
+        <v>0.58103082644668946</v>
       </c>
       <c r="N52" s="0">
         <v>0</v>
@@ -10706,7 +10706,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="0">
-        <v>0</v>
+        <v>0.6729068942756995</v>
       </c>
       <c r="Z52" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0.84000749833154686</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10855,7 +10855,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" s="0">
         <v>0</v>
@@ -10885,13 +10885,13 @@
         <v>0</v>
       </c>
       <c r="P53" s="0">
-        <v>0</v>
+        <v>0.54539066683963267</v>
       </c>
       <c r="Q53" s="0">
         <v>0</v>
       </c>
       <c r="R53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S53" s="0">
         <v>0</v>
@@ -10924,7 +10924,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD53" s="0">
         <v>0</v>
@@ -10990,19 +10990,19 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0</v>
+        <v>0.58257268606411527</v>
       </c>
       <c r="BC53" s="0">
-        <v>0</v>
+        <v>0.90413761549113247</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11011,7 +11011,7 @@
         <v>0</v>
       </c>
       <c r="BF53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG53" s="0">
         <v>0</v>
@@ -11058,7 +11058,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="0">
-        <v>0</v>
+        <v>0.6617008438035783</v>
       </c>
       <c r="F54" s="0">
         <v>0</v>
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0</v>
+        <v>0.52071985589083147</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0.95202085132635472</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="AU55" s="0">
-        <v>0</v>
+        <v>0.74111869952093756</v>
       </c>
       <c r="AV55" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>0</v>
+        <v>0.91840703436810966</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0.68308330316154242</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0.50934182036195319</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11429,7 +11429,7 @@
         <v>0</v>
       </c>
       <c r="BH55" s="0">
-        <v>0</v>
+        <v>0.57575963401941599</v>
       </c>
       <c r="BI55" s="0">
         <v>0</v>
@@ -11467,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="D56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" s="0">
         <v>0</v>
@@ -11599,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="AV56" s="0">
-        <v>0</v>
+        <v>0.75010563541569852</v>
       </c>
       <c r="AW56" s="0">
         <v>0</v>
@@ -11617,19 +11617,19 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0.62091109061696792</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0.9525563666841852</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0</v>
+        <v>0.77129370868384439</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11644,7 +11644,7 @@
         <v>0</v>
       </c>
       <c r="BK56" s="0">
-        <v>0</v>
+        <v>0.50439323026990435</v>
       </c>
       <c r="BL56" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0.9733556204013798</v>
       </c>
       <c r="BD57" s="0">
-        <v>0</v>
+        <v>0.95850901312995762</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0.79805609938247957</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0.88817344948464805</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11876,7 +11876,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="0">
-        <v>0</v>
+        <v>0.91260585487920265</v>
       </c>
       <c r="D58" s="0">
         <v>0</v>
@@ -12008,7 +12008,7 @@
         <v>0</v>
       </c>
       <c r="AU58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV58" s="0">
         <v>0</v>
@@ -12017,7 +12017,7 @@
         <v>0</v>
       </c>
       <c r="AX58" s="0">
-        <v>0</v>
+        <v>0.79623392529597437</v>
       </c>
       <c r="AY58" s="0">
         <v>0</v>
@@ -12026,7 +12026,7 @@
         <v>0</v>
       </c>
       <c r="BA58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB58" s="0">
         <v>0</v>
@@ -12035,16 +12035,16 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0.52224205868615792</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0.54366460010861195</v>
       </c>
       <c r="BH58" s="0">
         <v>0</v>
@@ -12130,7 +12130,7 @@
         <v>0</v>
       </c>
       <c r="S59" s="0">
-        <v>0</v>
+        <v>0.82628623597971773</v>
       </c>
       <c r="T59" s="0">
         <v>0</v>
@@ -12202,7 +12202,7 @@
         <v>0</v>
       </c>
       <c r="AQ59" s="0">
-        <v>0</v>
+        <v>0.95884419148976407</v>
       </c>
       <c r="AR59" s="0">
         <v>0</v>
@@ -12244,19 +12244,19 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0.88600337847149413</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0.51571767483668896</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0.58937592680352502</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.57691501486475039</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12265,7 +12265,7 @@
         <v>0</v>
       </c>
       <c r="BL59" s="0">
-        <v>0</v>
+        <v>0.582775442825892</v>
       </c>
       <c r="BM59" s="0">
         <v>0</v>
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="T60" s="0">
-        <v>0</v>
+        <v>0.79147785517744418</v>
       </c>
       <c r="U60" s="0">
         <v>0</v>
@@ -12354,7 +12354,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="0">
-        <v>0</v>
+        <v>0.98050585764214748</v>
       </c>
       <c r="Z60" s="0">
         <v>0</v>
@@ -12399,7 +12399,7 @@
         <v>0</v>
       </c>
       <c r="AN60" s="0">
-        <v>0</v>
+        <v>0.71497176774218796</v>
       </c>
       <c r="AO60" s="0">
         <v>0</v>
@@ -12444,7 +12444,7 @@
         <v>0</v>
       </c>
       <c r="BC60" s="0">
-        <v>0</v>
+        <v>0.85295154108575377</v>
       </c>
       <c r="BD60" s="0">
         <v>0</v>
@@ -12456,16 +12456,16 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0.80330305898358878</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12512,7 +12512,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" s="0">
         <v>0</v>
@@ -12569,7 +12569,7 @@
         <v>0</v>
       </c>
       <c r="AB61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC61" s="0">
         <v>0</v>
@@ -12614,7 +12614,7 @@
         <v>0</v>
       </c>
       <c r="AQ61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR61" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.50155935589531797</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.78172407869444804</v>
       </c>
       <c r="BK61" s="0">
-        <v>0</v>
+        <v>0.80547499391206967</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12793,7 +12793,7 @@
         <v>0</v>
       </c>
       <c r="AH62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI62" s="0">
         <v>0</v>
@@ -12871,19 +12871,19 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.65076120304444351</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0.71160179353675157</v>
       </c>
       <c r="BL62" s="0">
-        <v>0</v>
+        <v>0.81607716447014633</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12909,7 +12909,7 @@
         <v>0</v>
       </c>
       <c r="D63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" s="0">
         <v>0</v>
@@ -13023,7 +13023,7 @@
         <v>0</v>
       </c>
       <c r="AP63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ63" s="0">
         <v>0</v>
@@ -13065,7 +13065,7 @@
         <v>0</v>
       </c>
       <c r="BD63" s="0">
-        <v>0</v>
+        <v>0.91432278171711623</v>
       </c>
       <c r="BE63" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0</v>
+        <v>0.71645808193318739</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0.62330178718169549</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0</v>
+        <v>0.81454424609749521</v>
       </c>
       <c r="BM63" s="0">
-        <v>0</v>
+        <v>0.63099409450510524</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13101,7 +13101,7 @@
         <v>0</v>
       </c>
       <c r="BP63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="0">
-        <v>0</v>
+        <v>0.91419191008359224</v>
       </c>
       <c r="C64" s="0">
         <v>0</v>
@@ -13166,7 +13166,7 @@
         <v>0</v>
       </c>
       <c r="U64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V64" s="0">
         <v>0</v>
@@ -13280,7 +13280,7 @@
         <v>0</v>
       </c>
       <c r="BG64" s="0">
-        <v>0</v>
+        <v>0.69384436723958232</v>
       </c>
       <c r="BH64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0</v>
+        <v>0.80471148760319056</v>
       </c>
       <c r="BK64" s="0">
-        <v>0</v>
+        <v>0.55392009837189216</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13312,7 +13312,7 @@
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>0</v>
+        <v>0.79424805676238663</v>
       </c>
       <c r="B65" s="0">
         <v>0</v>
@@ -13330,7 +13330,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="0">
         <v>0</v>
@@ -13456,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="AW65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX65" s="0">
         <v>0</v>
@@ -13498,19 +13498,19 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0</v>
+        <v>0.52699318765202663</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0</v>
+        <v>0.68992769159465883</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0.73337844376792249</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>0</v>
+        <v>0.52297360512681679</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0.58921886271379864</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0.6559943835751183</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0</v>
+        <v>0.77085119975823368</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13763,7 +13763,7 @@
         <v>0</v>
       </c>
       <c r="N67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" s="0">
         <v>0</v>
@@ -13916,24 +13916,24 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0.59440433728858344</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0.61217754208275932</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.9551444920833021</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>0</v>
+        <v>0.9805945032983443</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14044,7 +14044,7 @@
         <v>0</v>
       </c>
       <c r="AM68" s="0">
-        <v>0</v>
+        <v>0.74817248509403678</v>
       </c>
       <c r="AN68" s="0">
         <v>0</v>
@@ -14116,7 +14116,7 @@
         <v>0</v>
       </c>
       <c r="BK68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0.50739608067235764</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.58451348067752562</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject28.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject28.xlsx
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0.56666766321834183</v>
+        <v>0.84406969457198744</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -185,7 +185,7 @@
         <v>0</v>
       </c>
       <c r="T1" s="0">
-        <v>0.5226385757513855</v>
+        <v>0.95030951142263598</v>
       </c>
       <c r="U1" s="0">
         <v>0</v>
@@ -320,7 +320,7 @@
         <v>0</v>
       </c>
       <c r="BM1" s="0">
-        <v>0.67729393367352309</v>
+        <v>0.79424805676238663</v>
       </c>
       <c r="BN1" s="0">
         <v>0</v>
@@ -343,7 +343,7 @@
         <v>0.97363867757716016</v>
       </c>
       <c r="D2" s="0">
-        <v>0.86135323555340837</v>
+        <v>0.93595585834606732</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="BL2" s="0">
-        <v>0.56796207626744177</v>
+        <v>0.91419191008359224</v>
       </c>
       <c r="BM2" s="0">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>0.50653950771129042</v>
+        <v>0.9805945032983443</v>
       </c>
     </row>
     <row r="3">
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>0.87117538366465985</v>
+        <v>0.97363867757716016</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="U3" s="0">
-        <v>0.64039984940257455</v>
+        <v>0.7638071239718851</v>
       </c>
       <c r="V3" s="0">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="BF3" s="0">
-        <v>0.62325411956760757</v>
+        <v>0.91260585487920265</v>
       </c>
       <c r="BG3" s="0">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0.93595585834606732</v>
       </c>
       <c r="C4" s="0">
-        <v>0.51832547231529369</v>
+        <v>0.78997406186949171</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.6739947209241629</v>
+        <v>0.98473751954392119</v>
       </c>
       <c r="F4" s="0">
         <v>0.80232046515208633</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.68916443684989637</v>
+        <v>0.8141080313907787</v>
       </c>
       <c r="D5" s="0">
         <v>0.98473751954392119</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0.88336562969210841</v>
+        <v>0.92374416831700756</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="AP5" s="0">
-        <v>0.90813759380931136</v>
+        <v>0.91094817366262215</v>
       </c>
       <c r="AQ5" s="0">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0.69485678363308279</v>
+        <v>0.80232046515208633</v>
       </c>
       <c r="E6" s="0">
         <v>0.92374416831700756</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>0.66707371329895171</v>
+        <v>0.74942714010387768</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0.88293810122818506</v>
       </c>
       <c r="I7" s="0">
-        <v>0.7973086677757083</v>
+        <v>0.96176481605732678</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0.66877353222088431</v>
+        <v>0.80215204443526744</v>
       </c>
       <c r="G8" s="0">
-        <v>0.61605943760308479</v>
+        <v>0.88293810122818506</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>0.68495426851711549</v>
+        <v>0.77949204753510437</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="0">
-        <v>0.61753729681660052</v>
+        <v>0.6403740112219718</v>
       </c>
       <c r="T8" s="0">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.54752070910459139</v>
+        <v>0.64939960975492173</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="0">
-        <v>0.74627237387063805</v>
+        <v>0.75395245632674923</v>
       </c>
       <c r="Y9" s="0">
         <v>0</v>
@@ -2012,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0.6041856124270093</v>
+        <v>0.68291851766607237</v>
       </c>
       <c r="L10" s="0">
-        <v>0.56816587142880626</v>
+        <v>0.64842767621753361</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>0.56971905116557497</v>
+        <v>0.94444497242210668</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="AM11" s="0">
-        <v>0.87806677442032388</v>
+        <v>0.98485603880536399</v>
       </c>
       <c r="AN11" s="0">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0.50381232126680819</v>
+        <v>0.77484136047155971</v>
       </c>
       <c r="N12" s="0">
         <v>0</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="0">
-        <v>0.91925845431572439</v>
+        <v>0.96051978076466527</v>
       </c>
       <c r="Z12" s="0">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0.81200417258731983</v>
       </c>
       <c r="O13" s="0">
-        <v>0.83417073174290912</v>
+        <v>0.94175426711000543</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="0">
-        <v>0.78478650894671742</v>
+        <v>0.81200417258731983</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>0.7578014275134084</v>
+        <v>0.98304423532742646</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.58015336585655919</v>
+        <v>0.67937858356756475</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.61162276970839358</v>
+        <v>0.70126401934584115</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="AY18" s="0">
-        <v>0.94337567926194832</v>
+        <v>0.9620938048640576</v>
       </c>
       <c r="AZ18" s="0">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="0">
-        <v>0.85456564284518333</v>
+        <v>0.99112050760299464</v>
       </c>
       <c r="O19" s="0">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.5149563957342107</v>
+        <v>0.97485589968068642</v>
       </c>
       <c r="R19" s="0">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>0.60725926476612213</v>
+        <v>0.69731825001117009</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="BG19" s="0">
-        <v>0.72304980414869524</v>
+        <v>0.82628623597971773</v>
       </c>
       <c r="BH19" s="0">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0.73444032488782685</v>
+        <v>0.96693744910405399</v>
       </c>
       <c r="S20" s="0">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="BH20" s="0">
-        <v>0.59541134757838032</v>
+        <v>0.79147785517744418</v>
       </c>
       <c r="BI20" s="0">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>0.64165339279219724</v>
+        <v>0.77948378610572167</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0.59359345970140831</v>
+        <v>0.85240086646409607</v>
       </c>
       <c r="X22" s="0">
         <v>0.93600897065996969</v>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="0">
-        <v>0.75401588180271339</v>
+        <v>0.89104935177213351</v>
       </c>
       <c r="F23" s="0">
         <v>0</v>
@@ -4729,10 +4729,10 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0.64693342448689628</v>
+        <v>0.87835381125561773</v>
       </c>
       <c r="Y23" s="0">
-        <v>0.64915890158133438</v>
+        <v>0.77169794416943005</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0.75663684342365278</v>
+        <v>0.93600897065996969</v>
       </c>
       <c r="W24" s="0">
         <v>0.87835381125561773</v>
@@ -4938,10 +4938,10 @@
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0.68456786887423882</v>
+        <v>0.77841504908580617</v>
       </c>
       <c r="Z24" s="0">
-        <v>0.51679057635883785</v>
+        <v>0.65645607457144606</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5180,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="0">
-        <v>0.87487664732439219</v>
+        <v>0.88417838699252438</v>
       </c>
       <c r="AL25" s="0">
         <v>0</v>
@@ -5249,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="BH25" s="0">
-        <v>0.63218134649723434</v>
+        <v>0.98050585764214748</v>
       </c>
       <c r="BI25" s="0">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0.76660418488388549</v>
       </c>
       <c r="AB26" s="0">
-        <v>0.60341403384601355</v>
+        <v>0.82389633411557117</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>0.56298965063764461</v>
+        <v>0.76660418488388549</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.67253832107010902</v>
+        <v>0.95991987228892195</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0.95922791517771788</v>
+        <v>0.96886329540628247</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -6141,10 +6141,10 @@
         <v>0</v>
       </c>
       <c r="N30" s="0">
-        <v>0.8332327854363939</v>
+        <v>0.84338280305506719</v>
       </c>
       <c r="O30" s="0">
-        <v>0.51570957367759784</v>
+        <v>0.73308411711287214</v>
       </c>
       <c r="P30" s="0">
         <v>0</v>
@@ -6177,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="Z30" s="0">
-        <v>0.76967144189134262</v>
+        <v>0.83690183053056255</v>
       </c>
       <c r="AA30" s="0">
         <v>0</v>
@@ -6186,7 +6186,7 @@
         <v>0.95991987228892195</v>
       </c>
       <c r="AC30" s="0">
-        <v>0.82604044051043868</v>
+        <v>0.85747038282458321</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.74311989110597243</v>
+        <v>0.87377571193761683</v>
       </c>
       <c r="AD31" s="0">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>0.71018505719525171</v>
+        <v>0.82541432547104177</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="AH32" s="0">
-        <v>0.68939112503600075</v>
+        <v>0.94902016754040086</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="AT32" s="0">
-        <v>0.78559872171860112</v>
+        <v>0.8007400252354917</v>
       </c>
       <c r="AU32" s="0">
         <v>0</v>
@@ -6765,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="0">
-        <v>0.61912333200698888</v>
+        <v>0.69228380132272527</v>
       </c>
       <c r="Q33" s="0">
         <v>0</v>
@@ -7022,16 +7022,16 @@
         <v>0.94902016754040086</v>
       </c>
       <c r="AG34" s="0">
-        <v>0.67681432290421539</v>
+        <v>0.95359307852569664</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0.74910742042893852</v>
+        <v>0.77053135277114881</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0.53460583987431998</v>
+        <v>0.62671915148163171</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0.64515430651084937</v>
+        <v>0.74165524745943423</v>
       </c>
       <c r="AH35" s="0">
         <v>0.77053135277114881</v>
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0.71661920132573709</v>
+        <v>0.83950283467304654</v>
       </c>
       <c r="AK35" s="0">
         <v>0.97932967987832953</v>
@@ -7416,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="AA36" s="0">
-        <v>0.63804243667445115</v>
+        <v>0.76559541934169184</v>
       </c>
       <c r="AB36" s="0">
         <v>0</v>
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="0">
-        <v>0.61804707059153252</v>
+        <v>0.67178769225500434</v>
       </c>
       <c r="U37" s="0">
         <v>0</v>
@@ -7646,16 +7646,16 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0.84223924557487628</v>
+        <v>0.97932967987832953</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0.62257737547727587</v>
+        <v>0.68099622426497941</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.81830740494613674</v>
+        <v>0.85992271874923687</v>
       </c>
       <c r="AM37" s="0">
         <v>0.94006255623494117</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0.5861849047324339</v>
+        <v>0.67089198889248802</v>
       </c>
       <c r="AK38" s="0">
         <v>0.85992271874923687</v>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>0.56422970855386922</v>
+        <v>0.72258194447667756</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7879,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="AR38" s="0">
-        <v>0.87513171037763637</v>
+        <v>0.98378272731212535</v>
       </c>
       <c r="AS38" s="0">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0.75060584614427484</v>
+        <v>0.94006255623494117</v>
       </c>
       <c r="AL39" s="0">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0.86700411280557232</v>
       </c>
       <c r="AO39" s="0">
-        <v>0.68420052493043193</v>
+        <v>0.97380736535945567</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="BP39" s="0">
-        <v>0.70346753155638742</v>
+        <v>0.74817248509403678</v>
       </c>
     </row>
     <row r="40">
@@ -8276,7 +8276,7 @@
         <v>0.72258194447667756</v>
       </c>
       <c r="AM40" s="0">
-        <v>0.72875220593606849</v>
+        <v>0.86700411280557232</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>0.67023895866871108</v>
+        <v>0.71086780245212067</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="0">
-        <v>0.52688554867592985</v>
+        <v>0.97992666034121911</v>
       </c>
       <c r="H42" s="0">
         <v>0</v>
@@ -8625,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="R42" s="0">
-        <v>0.81494320346071514</v>
+        <v>0.92543101909177072</v>
       </c>
       <c r="S42" s="0">
         <v>0</v>
@@ -8694,7 +8694,7 @@
         <v>0.71086780245212067</v>
       </c>
       <c r="AO42" s="0">
-        <v>0.54122485576721213</v>
+        <v>0.94032464047300601</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0.50678652174130556</v>
+        <v>0.95813480018044284</v>
       </c>
       <c r="AP43" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>0.60966388854108322</v>
+        <v>0.64385653895181605</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8954,7 +8954,7 @@
         <v>0</v>
       </c>
       <c r="BG43" s="0">
-        <v>0.54855507730701969</v>
+        <v>0.95884419148976407</v>
       </c>
       <c r="BH43" s="0">
         <v>0</v>
@@ -8998,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="0">
-        <v>0.94579917623892074</v>
+        <v>0.98661554830891285</v>
       </c>
       <c r="F44" s="0">
         <v>0</v>
@@ -9067,7 +9067,7 @@
         <v>0</v>
       </c>
       <c r="AB44" s="0">
-        <v>0.599477122817208</v>
+        <v>0.61796044767477498</v>
       </c>
       <c r="AC44" s="0">
         <v>0</v>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="AE44" s="0">
-        <v>0.64700180923046158</v>
+        <v>0.76084779889036702</v>
       </c>
       <c r="AF44" s="0">
         <v>0</v>
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0.53978905350676143</v>
+        <v>0.87620743180455252</v>
       </c>
       <c r="AT44" s="0">
         <v>0</v>
@@ -9536,10 +9536,10 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0.55680100259953158</v>
+        <v>0.96215535586449019</v>
       </c>
       <c r="AV46" s="0">
-        <v>0.62439687538304245</v>
+        <v>0.67806953366543021</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0.5657658130471297</v>
+        <v>0.82671690517285401</v>
       </c>
       <c r="AT47" s="0">
         <v>0.96215535586449019</v>
@@ -9745,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0.70736364884648406</v>
+        <v>0.74413726811646752</v>
       </c>
       <c r="AW47" s="0">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>0.67231647279562334</v>
+        <v>0.69187949848405228</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10082,7 +10082,7 @@
         <v>0</v>
       </c>
       <c r="W49" s="0">
-        <v>0.60639507220716915</v>
+        <v>0.83899304605799263</v>
       </c>
       <c r="X49" s="0">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="AK49" s="0">
-        <v>0.52214968214908752</v>
+        <v>0.72479110223193111</v>
       </c>
       <c r="AL49" s="0">
         <v>0</v>
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="AA50" s="0">
-        <v>0.88686466035548839</v>
+        <v>0.95731020571439407</v>
       </c>
       <c r="AB50" s="0">
         <v>0</v>
@@ -10560,7 +10560,7 @@
         <v>0</v>
       </c>
       <c r="AS51" s="0">
-        <v>0.54187553387405196</v>
+        <v>0.78136923471395647</v>
       </c>
       <c r="AT51" s="0">
         <v>0</v>
@@ -10581,7 +10581,7 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0.61680800362133259</v>
+        <v>0.84000749833154686</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="0">
-        <v>0.58103082644668946</v>
+        <v>0.77012332752753521</v>
       </c>
       <c r="N52" s="0">
         <v>0</v>
@@ -10706,7 +10706,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="0">
-        <v>0.6729068942756995</v>
+        <v>0.91985204254382369</v>
       </c>
       <c r="Z52" s="0">
         <v>0</v>
@@ -10885,7 +10885,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="0">
-        <v>0.54539066683963267</v>
+        <v>0.55921137224037021</v>
       </c>
       <c r="Q53" s="0">
         <v>0</v>
@@ -11002,7 +11002,7 @@
         <v>0.58257268606411527</v>
       </c>
       <c r="BC53" s="0">
-        <v>0.90413761549113247</v>
+        <v>0.91840703436810966</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11058,7 +11058,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="0">
-        <v>0.6617008438035783</v>
+        <v>0.95907326201324949</v>
       </c>
       <c r="F54" s="0">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.52071985589083147</v>
+        <v>0.58257268606411527</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="AU55" s="0">
-        <v>0.74111869952093756</v>
+        <v>0.91779915081840058</v>
       </c>
       <c r="AV55" s="0">
         <v>0</v>
@@ -11417,10 +11417,10 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0.68308330316154242</v>
+        <v>0.9525563666841852</v>
       </c>
       <c r="BE55" s="0">
-        <v>0.50934182036195319</v>
+        <v>0.9733556204013798</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11429,7 +11429,7 @@
         <v>0</v>
       </c>
       <c r="BH55" s="0">
-        <v>0.57575963401941599</v>
+        <v>0.85295154108575377</v>
       </c>
       <c r="BI55" s="0">
         <v>0</v>
@@ -11599,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="AV56" s="0">
-        <v>0.75010563541569852</v>
+        <v>0.93826626379340317</v>
       </c>
       <c r="AW56" s="0">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0.62091109061696792</v>
+        <v>0.95202085132635472</v>
       </c>
       <c r="BC56" s="0">
         <v>0.9525563666841852</v>
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0.77129370868384439</v>
+        <v>0.95850901312995762</v>
       </c>
       <c r="BF56" s="0">
         <v>0</v>
@@ -11644,7 +11644,7 @@
         <v>0</v>
       </c>
       <c r="BK56" s="0">
-        <v>0.50439323026990435</v>
+        <v>0.91432278171711623</v>
       </c>
       <c r="BL56" s="0">
         <v>0</v>
@@ -12017,7 +12017,7 @@
         <v>0</v>
       </c>
       <c r="AX58" s="0">
-        <v>0.79623392529597437</v>
+        <v>0.93857685347310049</v>
       </c>
       <c r="AY58" s="0">
         <v>0</v>
@@ -12038,7 +12038,7 @@
         <v>0</v>
       </c>
       <c r="BE58" s="0">
-        <v>0.52224205868615792</v>
+        <v>0.79805609938247957</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12244,16 +12244,16 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0.88600337847149413</v>
+        <v>0.88817344948464805</v>
       </c>
       <c r="BF59" s="0">
-        <v>0.51571767483668896</v>
+        <v>0.54366460010861195</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0.58937592680352502</v>
+        <v>0.80330305898358878</v>
       </c>
       <c r="BI59" s="0">
         <v>0.57691501486475039</v>
@@ -12265,7 +12265,7 @@
         <v>0</v>
       </c>
       <c r="BL59" s="0">
-        <v>0.582775442825892</v>
+        <v>0.69384436723958232</v>
       </c>
       <c r="BM59" s="0">
         <v>0</v>
@@ -12399,7 +12399,7 @@
         <v>0</v>
       </c>
       <c r="AN60" s="0">
-        <v>0.71497176774218796</v>
+        <v>0.88562167873052333</v>
       </c>
       <c r="AO60" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0.50155935589531797</v>
+        <v>0.57691501486475039</v>
       </c>
       <c r="BH61" s="0">
         <v>0</v>
@@ -12874,7 +12874,7 @@
         <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>0.65076120304444351</v>
+        <v>0.78172407869444804</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
@@ -13080,10 +13080,10 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0.71645808193318739</v>
+        <v>0.80547499391206967</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0.62330178718169549</v>
+        <v>0.71160179353675157</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13289,10 +13289,10 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0.80471148760319056</v>
+        <v>0.81607716447014633</v>
       </c>
       <c r="BK64" s="0">
-        <v>0.55392009837189216</v>
+        <v>0.81454424609749521</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13498,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0.52699318765202663</v>
+        <v>0.63099409450510524</v>
       </c>
       <c r="BL65" s="0">
         <v>0</v>
@@ -13710,13 +13710,13 @@
         <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>0.52297360512681679</v>
+        <v>0.68992769159465883</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0.58921886271379864</v>
+        <v>0.61217754208275932</v>
       </c>
       <c r="BP66" s="0">
         <v>0.6559943835751183</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.77085119975823368</v>
+        <v>0.79410381005545827</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0.59440433728858344</v>
+        <v>0.73337844376792249</v>
       </c>
       <c r="BN67" s="0">
         <v>0.61217754208275932</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0.50739608067235764</v>
+        <v>0.6559943835751183</v>
       </c>
       <c r="BO68" s="0">
-        <v>0.58451348067752562</v>
+        <v>0.9551444920833021</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>
